--- a/sputnik/personal/ee/313ee.xlsx
+++ b/sputnik/personal/ee/313ee.xlsx
@@ -16,23 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -40,6 +31,21 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -47,9 +53,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,14 +78,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -89,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,42 +110,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -157,7 +126,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -166,37 +135,10 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -504,10 +446,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H3" sqref="H3:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -518,359 +460,278 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43253</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43435</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>6234</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43337</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C2" s="2">
+        <v>6650</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>43646</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
-        <v>6397</v>
-      </c>
-      <c r="D3" s="5">
-        <f t="shared" ref="D3:D9" si="0">SUM(C3,-C2)</f>
-        <v>163</v>
-      </c>
-      <c r="E3" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="F3" s="20">
-        <f t="shared" ref="F3:F8" si="1">PRODUCT(D3,E3)</f>
-        <v>733.5</v>
+      <c r="C3" s="2">
+        <v>6700</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D7" si="0">SUM(C3,-C2)</f>
+        <v>50</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4.57</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F6" si="1">PRODUCT(D3,E3)</f>
+        <v>228.5</v>
+      </c>
+      <c r="G3" s="9">
+        <v>228.5</v>
+      </c>
+      <c r="H3" s="9">
+        <v>228.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43435</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>6650</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>253</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="20">
-        <f t="shared" si="1"/>
-        <v>1138.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43646</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>6700</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4.57</v>
-      </c>
-      <c r="F5" s="20">
-        <f t="shared" si="1"/>
-        <v>228.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43678</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="C4" s="2">
         <v>6770</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D4" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E4" s="4">
         <v>4.49</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F4" s="8">
         <f t="shared" si="1"/>
         <v>314.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="G4" s="9">
+        <v>314.3</v>
+      </c>
+      <c r="H4" s="9">
+        <v>314.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>43710</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C5" s="2">
         <v>6840</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E5" s="4">
         <v>4.49</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F5" s="8">
         <f t="shared" si="1"/>
         <v>314.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="G5" s="9">
+        <v>314.3</v>
+      </c>
+      <c r="H5" s="9">
+        <v>314.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>43739</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C6" s="2">
         <v>6910</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E6" s="4">
         <v>4.49</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F6" s="8">
         <f t="shared" si="1"/>
         <v>314.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="G6" s="9">
+        <v>314.3</v>
+      </c>
+      <c r="H6" s="9">
+        <v>314.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>43769</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C7" s="2">
         <v>6980</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E7" s="4">
         <v>4.49</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F7" s="8">
+        <f>PRODUCT(D7,E7)</f>
+        <v>314.3</v>
+      </c>
+      <c r="G7" s="9">
+        <v>314.3</v>
+      </c>
+      <c r="H7" s="9">
+        <v>314.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>43801</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7050</v>
+      </c>
+      <c r="D8" s="2">
+        <f>SUM(C8,-C7)</f>
+        <v>70</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="8">
+        <f>PRODUCT(D8,E8)</f>
+        <v>314.3</v>
+      </c>
+      <c r="G8" s="9">
+        <v>314.3</v>
+      </c>
+      <c r="H8" s="9">
+        <v>314.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>43830</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7120</v>
+      </c>
+      <c r="D9" s="2">
+        <f>SUM(C9,-C8)</f>
+        <v>70</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="F9" s="8">
         <f>PRODUCT(D9,E9)</f>
         <v>314.3</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>2</v>
+      <c r="G9" s="9">
+        <v>314.3</v>
+      </c>
+      <c r="H9" s="9">
+        <v>314.3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43801</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>7050</v>
-      </c>
-      <c r="D10" s="3">
-        <f>SUM(C10,-C9)</f>
-        <v>70</v>
-      </c>
-      <c r="E10" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="20">
-        <f>PRODUCT(D10,E10)</f>
-        <v>314.3</v>
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="9">
+        <f>SUM(G2:G9)</f>
+        <v>2114.2999999999997</v>
+      </c>
+      <c r="H10" s="9">
+        <f>SUM(H2:H9)</f>
+        <v>2114.2999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43830</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>7120</v>
-      </c>
-      <c r="D11" s="3">
-        <f>SUM(C11,-C10)</f>
-        <v>70</v>
-      </c>
-      <c r="E11" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F11" s="20">
-        <f>PRODUCT(D11,E11)</f>
-        <v>314.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="21"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/313ee.xlsx
+++ b/sputnik/personal/ee/313ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -446,10 +446,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H9"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -706,32 +706,88 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="5" t="s">
+      <c r="A10" s="3">
+        <v>43955</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7190</v>
+      </c>
+      <c r="D10" s="2">
+        <f>SUM(C10,-C9)</f>
+        <v>70</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="8">
+        <f>PRODUCT(D10,E10)</f>
+        <v>314.3</v>
+      </c>
+      <c r="G10" s="9">
+        <v>314.3</v>
+      </c>
+      <c r="H10" s="9">
+        <v>314.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>43984</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7260</v>
+      </c>
+      <c r="D11" s="2">
+        <f>SUM(C11,-C10)</f>
+        <v>70</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="F11" s="8">
+        <f>PRODUCT(D11,E11)</f>
+        <v>314.3</v>
+      </c>
+      <c r="G11" s="9">
+        <v>314.3</v>
+      </c>
+      <c r="H11" s="9">
+        <v>314.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="9">
-        <f>SUM(G2:G9)</f>
-        <v>2114.2999999999997</v>
-      </c>
-      <c r="H10" s="9">
-        <f>SUM(H2:H9)</f>
-        <v>2114.2999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="G12" s="9">
+        <f>SUM(G2:G11)</f>
+        <v>2742.9</v>
+      </c>
+      <c r="H12" s="9">
+        <f>SUM(H2:H11)</f>
+        <v>2742.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/313ee.xlsx
+++ b/sputnik/personal/ee/313ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -446,10 +446,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -762,21 +762,31 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="5" t="s">
-        <v>9</v>
+      <c r="A12" s="3">
+        <v>44053</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7310</v>
+      </c>
+      <c r="D12" s="2">
+        <f>SUM(C12,-C11)</f>
+        <v>50</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f>PRODUCT(D12,E12)</f>
+        <v>235.5</v>
       </c>
       <c r="G12" s="9">
-        <f>SUM(G2:G11)</f>
-        <v>2742.9</v>
+        <v>235.5</v>
       </c>
       <c r="H12" s="9">
-        <f>SUM(H2:H11)</f>
-        <v>2742.9</v>
+        <v>235.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -784,10 +794,28 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="9">
+        <f>SUM(G2:G12)</f>
+        <v>2978.4</v>
+      </c>
+      <c r="H13" s="9">
+        <f>SUM(H2:H12)</f>
+        <v>2978.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/313ee.xlsx
+++ b/sputnik/personal/ee/313ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -446,10 +446,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -639,7 +639,7 @@
         <v>4.49</v>
       </c>
       <c r="F7" s="8">
-        <f>PRODUCT(D7,E7)</f>
+        <f t="shared" ref="F7:F13" si="2">PRODUCT(D7,E7)</f>
         <v>314.3</v>
       </c>
       <c r="G7" s="9">
@@ -667,7 +667,7 @@
         <v>4.49</v>
       </c>
       <c r="F8" s="8">
-        <f>PRODUCT(D8,E8)</f>
+        <f t="shared" si="2"/>
         <v>314.3</v>
       </c>
       <c r="G8" s="9">
@@ -695,7 +695,7 @@
         <v>4.49</v>
       </c>
       <c r="F9" s="8">
-        <f>PRODUCT(D9,E9)</f>
+        <f t="shared" si="2"/>
         <v>314.3</v>
       </c>
       <c r="G9" s="9">
@@ -723,7 +723,7 @@
         <v>4.49</v>
       </c>
       <c r="F10" s="8">
-        <f>PRODUCT(D10,E10)</f>
+        <f t="shared" si="2"/>
         <v>314.3</v>
       </c>
       <c r="G10" s="9">
@@ -751,7 +751,7 @@
         <v>4.49</v>
       </c>
       <c r="F11" s="8">
-        <f>PRODUCT(D11,E11)</f>
+        <f t="shared" si="2"/>
         <v>314.3</v>
       </c>
       <c r="G11" s="9">
@@ -779,7 +779,7 @@
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f>PRODUCT(D12,E12)</f>
+        <f t="shared" ref="F12" si="3">PRODUCT(D12,E12)</f>
         <v>235.5</v>
       </c>
       <c r="G12" s="9">
@@ -790,21 +790,31 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="5" t="s">
-        <v>9</v>
+      <c r="A13" s="3">
+        <v>44075</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>7360</v>
+      </c>
+      <c r="D13" s="2">
+        <f>SUM(C13,-C12)</f>
+        <v>50</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="2"/>
+        <v>235.5</v>
       </c>
       <c r="G13" s="9">
-        <f>SUM(G2:G12)</f>
-        <v>2978.4</v>
+        <v>235.5</v>
       </c>
       <c r="H13" s="9">
-        <f>SUM(H2:H12)</f>
-        <v>2978.4</v>
+        <v>235.5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -812,10 +822,28 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUM(G2:G13)</f>
+        <v>3213.9</v>
+      </c>
+      <c r="H14" s="9">
+        <f>SUM(H2:H13)</f>
+        <v>3213.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/313ee.xlsx
+++ b/sputnik/personal/ee/313ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -114,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -131,9 +128,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -449,7 +443,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -505,9 +499,9 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -526,14 +520,14 @@
       <c r="E3" s="4">
         <v>4.57</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <f t="shared" ref="F3:F6" si="1">PRODUCT(D3,E3)</f>
         <v>228.5</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>228.5</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>228.5</v>
       </c>
     </row>
@@ -554,14 +548,14 @@
       <c r="E4" s="4">
         <v>4.49</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <f t="shared" si="1"/>
         <v>314.3</v>
       </c>
-      <c r="G4" s="9">
-        <v>314.3</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="G4" s="8">
+        <v>314.3</v>
+      </c>
+      <c r="H4" s="8">
         <v>314.3</v>
       </c>
     </row>
@@ -582,14 +576,14 @@
       <c r="E5" s="4">
         <v>4.49</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <f t="shared" si="1"/>
         <v>314.3</v>
       </c>
-      <c r="G5" s="9">
-        <v>314.3</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="G5" s="8">
+        <v>314.3</v>
+      </c>
+      <c r="H5" s="8">
         <v>314.3</v>
       </c>
     </row>
@@ -610,14 +604,14 @@
       <c r="E6" s="4">
         <v>4.49</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <f t="shared" si="1"/>
         <v>314.3</v>
       </c>
-      <c r="G6" s="9">
-        <v>314.3</v>
-      </c>
-      <c r="H6" s="9">
+      <c r="G6" s="8">
+        <v>314.3</v>
+      </c>
+      <c r="H6" s="8">
         <v>314.3</v>
       </c>
     </row>
@@ -638,14 +632,14 @@
       <c r="E7" s="4">
         <v>4.49</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <f t="shared" ref="F7:F13" si="2">PRODUCT(D7,E7)</f>
         <v>314.3</v>
       </c>
-      <c r="G7" s="9">
-        <v>314.3</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="G7" s="8">
+        <v>314.3</v>
+      </c>
+      <c r="H7" s="8">
         <v>314.3</v>
       </c>
     </row>
@@ -660,20 +654,20 @@
         <v>7050</v>
       </c>
       <c r="D8" s="2">
-        <f>SUM(C8,-C7)</f>
+        <f t="shared" ref="D8:D14" si="3">SUM(C8,-C7)</f>
         <v>70</v>
       </c>
       <c r="E8" s="4">
         <v>4.49</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <f t="shared" si="2"/>
         <v>314.3</v>
       </c>
-      <c r="G8" s="9">
-        <v>314.3</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="G8" s="8">
+        <v>314.3</v>
+      </c>
+      <c r="H8" s="8">
         <v>314.3</v>
       </c>
     </row>
@@ -688,20 +682,20 @@
         <v>7120</v>
       </c>
       <c r="D9" s="2">
-        <f>SUM(C9,-C8)</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="E9" s="4">
         <v>4.49</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <f t="shared" si="2"/>
         <v>314.3</v>
       </c>
-      <c r="G9" s="9">
-        <v>314.3</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="G9" s="8">
+        <v>314.3</v>
+      </c>
+      <c r="H9" s="8">
         <v>314.3</v>
       </c>
     </row>
@@ -716,20 +710,20 @@
         <v>7190</v>
       </c>
       <c r="D10" s="2">
-        <f>SUM(C10,-C9)</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="E10" s="4">
         <v>4.49</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <f t="shared" si="2"/>
         <v>314.3</v>
       </c>
-      <c r="G10" s="9">
-        <v>314.3</v>
-      </c>
-      <c r="H10" s="9">
+      <c r="G10" s="8">
+        <v>314.3</v>
+      </c>
+      <c r="H10" s="8">
         <v>314.3</v>
       </c>
     </row>
@@ -744,20 +738,20 @@
         <v>7260</v>
       </c>
       <c r="D11" s="2">
-        <f>SUM(C11,-C10)</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="E11" s="4">
         <v>4.49</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <f t="shared" si="2"/>
         <v>314.3</v>
       </c>
-      <c r="G11" s="9">
-        <v>314.3</v>
-      </c>
-      <c r="H11" s="9">
+      <c r="G11" s="8">
+        <v>314.3</v>
+      </c>
+      <c r="H11" s="8">
         <v>314.3</v>
       </c>
     </row>
@@ -772,20 +766,20 @@
         <v>7310</v>
       </c>
       <c r="D12" s="2">
-        <f>SUM(C12,-C11)</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="E12" s="4">
         <v>4.71</v>
       </c>
-      <c r="F12" s="8">
-        <f t="shared" ref="F12" si="3">PRODUCT(D12,E12)</f>
+      <c r="F12" s="7">
+        <f t="shared" ref="F12" si="4">PRODUCT(D12,E12)</f>
         <v>235.5</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>235.5</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>235.5</v>
       </c>
     </row>
@@ -800,39 +794,49 @@
         <v>7360</v>
       </c>
       <c r="D13" s="2">
-        <f>SUM(C13,-C12)</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="E13" s="4">
         <v>4.71</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <f t="shared" si="2"/>
         <v>235.5</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>235.5</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>235.5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="9">
-        <f>SUM(G2:G13)</f>
-        <v>3213.9</v>
-      </c>
-      <c r="H14" s="9">
-        <f>SUM(H2:H13)</f>
-        <v>3213.9</v>
+      <c r="A14" s="3">
+        <v>44109</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>7410</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" ref="F14" si="5">PRODUCT(D14,E14)</f>
+        <v>235.5</v>
+      </c>
+      <c r="G14" s="8">
+        <v>235.5</v>
+      </c>
+      <c r="H14" s="8">
+        <v>235.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -842,8 +846,8 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/313ee.xlsx
+++ b/sputnik/personal/ee/313ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
@@ -111,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -122,9 +122,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -443,7 +440,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -468,7 +465,7 @@
       <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -477,7 +474,7 @@
       <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -499,9 +496,9 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -520,14 +517,14 @@
       <c r="E3" s="4">
         <v>4.57</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f t="shared" ref="F3:F6" si="1">PRODUCT(D3,E3)</f>
         <v>228.5</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>228.5</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>228.5</v>
       </c>
     </row>
@@ -548,14 +545,14 @@
       <c r="E4" s="4">
         <v>4.49</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f t="shared" si="1"/>
         <v>314.3</v>
       </c>
-      <c r="G4" s="8">
-        <v>314.3</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="G4" s="7">
+        <v>314.3</v>
+      </c>
+      <c r="H4" s="7">
         <v>314.3</v>
       </c>
     </row>
@@ -576,14 +573,14 @@
       <c r="E5" s="4">
         <v>4.49</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f t="shared" si="1"/>
         <v>314.3</v>
       </c>
-      <c r="G5" s="8">
-        <v>314.3</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="G5" s="7">
+        <v>314.3</v>
+      </c>
+      <c r="H5" s="7">
         <v>314.3</v>
       </c>
     </row>
@@ -604,14 +601,14 @@
       <c r="E6" s="4">
         <v>4.49</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f t="shared" si="1"/>
         <v>314.3</v>
       </c>
-      <c r="G6" s="8">
-        <v>314.3</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="G6" s="7">
+        <v>314.3</v>
+      </c>
+      <c r="H6" s="7">
         <v>314.3</v>
       </c>
     </row>
@@ -632,14 +629,14 @@
       <c r="E7" s="4">
         <v>4.49</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f t="shared" ref="F7:F13" si="2">PRODUCT(D7,E7)</f>
         <v>314.3</v>
       </c>
-      <c r="G7" s="8">
-        <v>314.3</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="G7" s="7">
+        <v>314.3</v>
+      </c>
+      <c r="H7" s="7">
         <v>314.3</v>
       </c>
     </row>
@@ -660,14 +657,14 @@
       <c r="E8" s="4">
         <v>4.49</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <f t="shared" si="2"/>
         <v>314.3</v>
       </c>
-      <c r="G8" s="8">
-        <v>314.3</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="G8" s="7">
+        <v>314.3</v>
+      </c>
+      <c r="H8" s="7">
         <v>314.3</v>
       </c>
     </row>
@@ -688,14 +685,14 @@
       <c r="E9" s="4">
         <v>4.49</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f t="shared" si="2"/>
         <v>314.3</v>
       </c>
-      <c r="G9" s="8">
-        <v>314.3</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="G9" s="7">
+        <v>314.3</v>
+      </c>
+      <c r="H9" s="7">
         <v>314.3</v>
       </c>
     </row>
@@ -716,14 +713,14 @@
       <c r="E10" s="4">
         <v>4.49</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <f t="shared" si="2"/>
         <v>314.3</v>
       </c>
-      <c r="G10" s="8">
-        <v>314.3</v>
-      </c>
-      <c r="H10" s="8">
+      <c r="G10" s="7">
+        <v>314.3</v>
+      </c>
+      <c r="H10" s="7">
         <v>314.3</v>
       </c>
     </row>
@@ -744,14 +741,14 @@
       <c r="E11" s="4">
         <v>4.49</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <f t="shared" si="2"/>
         <v>314.3</v>
       </c>
-      <c r="G11" s="8">
-        <v>314.3</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="G11" s="7">
+        <v>314.3</v>
+      </c>
+      <c r="H11" s="7">
         <v>314.3</v>
       </c>
     </row>
@@ -772,14 +769,14 @@
       <c r="E12" s="4">
         <v>4.71</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <f t="shared" ref="F12" si="4">PRODUCT(D12,E12)</f>
         <v>235.5</v>
       </c>
-      <c r="G12" s="8">
-        <v>235.5</v>
-      </c>
-      <c r="H12" s="8">
+      <c r="G12" s="7">
+        <v>235.5</v>
+      </c>
+      <c r="H12" s="7">
         <v>235.5</v>
       </c>
     </row>
@@ -800,14 +797,14 @@
       <c r="E13" s="4">
         <v>4.71</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <f t="shared" si="2"/>
         <v>235.5</v>
       </c>
-      <c r="G13" s="8">
-        <v>235.5</v>
-      </c>
-      <c r="H13" s="8">
+      <c r="G13" s="7">
+        <v>235.5</v>
+      </c>
+      <c r="H13" s="7">
         <v>235.5</v>
       </c>
     </row>
@@ -828,26 +825,44 @@
       <c r="E14" s="4">
         <v>4.71</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <f t="shared" ref="F14" si="5">PRODUCT(D14,E14)</f>
         <v>235.5</v>
       </c>
-      <c r="G14" s="8">
-        <v>235.5</v>
-      </c>
-      <c r="H14" s="8">
+      <c r="G14" s="7">
+        <v>235.5</v>
+      </c>
+      <c r="H14" s="7">
         <v>235.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="A15" s="3">
+        <v>44137</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>7460</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15" si="6">SUM(C15,-C14)</f>
+        <v>50</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" ref="F15" si="7">PRODUCT(D15,E15)</f>
+        <v>235.5</v>
+      </c>
+      <c r="G15" s="7">
+        <v>235.5</v>
+      </c>
+      <c r="H15" s="7">
+        <v>235.5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/313ee.xlsx
+++ b/sputnik/personal/ee/313ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
@@ -437,10 +437,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -861,6 +861,34 @@
         <v>235.5</v>
       </c>
       <c r="H15" s="7">
+        <v>235.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44173</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>7510</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16" si="8">SUM(C16,-C15)</f>
+        <v>50</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16" si="9">PRODUCT(D16,E16)</f>
+        <v>235.5</v>
+      </c>
+      <c r="G16" s="7">
+        <v>235.5</v>
+      </c>
+      <c r="H16" s="7">
         <v>235.5</v>
       </c>
     </row>

--- a/sputnik/personal/ee/313ee.xlsx
+++ b/sputnik/personal/ee/313ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
@@ -437,10 +437,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -889,6 +889,34 @@
         <v>235.5</v>
       </c>
       <c r="H16" s="7">
+        <v>235.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>44351</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>7560</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" ref="D17" si="10">SUM(C17,-C16)</f>
+        <v>50</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" ref="F17" si="11">PRODUCT(D17,E17)</f>
+        <v>235.5</v>
+      </c>
+      <c r="G17" s="7">
+        <v>235.5</v>
+      </c>
+      <c r="H17" s="7">
         <v>235.5</v>
       </c>
     </row>

--- a/sputnik/personal/ee/313ee.xlsx
+++ b/sputnik/personal/ee/313ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
@@ -437,10 +437,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -917,6 +917,34 @@
         <v>235.5</v>
       </c>
       <c r="H17" s="7">
+        <v>235.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>44372</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>7610</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18" si="12">SUM(C18,-C17)</f>
+        <v>50</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18" si="13">PRODUCT(D18,E18)</f>
+        <v>235.5</v>
+      </c>
+      <c r="G18" s="7">
+        <v>235.5</v>
+      </c>
+      <c r="H18" s="7">
         <v>235.5</v>
       </c>
     </row>

--- a/sputnik/personal/ee/313ee.xlsx
+++ b/sputnik/personal/ee/313ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
@@ -437,10 +437,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -946,6 +946,62 @@
       </c>
       <c r="H18" s="7">
         <v>235.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>44418</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>7660</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19" si="14">SUM(C19,-C18)</f>
+        <v>50</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4.96</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" ref="F19" si="15">PRODUCT(D19,E19)</f>
+        <v>248</v>
+      </c>
+      <c r="G19" s="7">
+        <v>248</v>
+      </c>
+      <c r="H19" s="7">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>44447</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>7710</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20" si="16">SUM(C20,-C19)</f>
+        <v>50</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4.96</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" ref="F20" si="17">PRODUCT(D20,E20)</f>
+        <v>248</v>
+      </c>
+      <c r="G20" s="7">
+        <v>248</v>
+      </c>
+      <c r="H20" s="7">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/313ee.xlsx
+++ b/sputnik/personal/ee/313ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
@@ -437,10 +437,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1001,6 +1001,62 @@
         <v>248</v>
       </c>
       <c r="H20" s="7">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>44482</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>7760</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" ref="D21" si="18">SUM(C21,-C20)</f>
+        <v>50</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4.96</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" ref="F21" si="19">PRODUCT(D21,E21)</f>
+        <v>248</v>
+      </c>
+      <c r="G21" s="7">
+        <v>248</v>
+      </c>
+      <c r="H21" s="7">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>44482</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>7760</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22" si="20">SUM(C22,-C21)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>4.96</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" ref="F22" si="21">PRODUCT(D22,E22)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>248</v>
+      </c>
+      <c r="H22" s="7">
         <v>248</v>
       </c>
     </row>

--- a/sputnik/personal/ee/313ee.xlsx
+++ b/sputnik/personal/ee/313ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
@@ -437,10 +437,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:H22"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1040,24 +1040,52 @@
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>7760</v>
+        <v>7810</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" ref="D22" si="20">SUM(C22,-C21)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E22" s="4">
         <v>4.96</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" ref="F22" si="21">PRODUCT(D22,E22)</f>
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="G22" s="7">
         <v>248</v>
       </c>
       <c r="H22" s="7">
         <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>44508</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>7910</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" ref="D23" si="22">SUM(C23,-C22)</f>
+        <v>100</v>
+      </c>
+      <c r="E23" s="4">
+        <v>4.96</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" ref="F23" si="23">PRODUCT(D23,E23)</f>
+        <v>496</v>
+      </c>
+      <c r="G23" s="7">
+        <v>496</v>
+      </c>
+      <c r="H23" s="7">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
